--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Biomass [Gt C]</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Humans</t>
+  </si>
+  <si>
+    <t>Wild birds</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,7 +503,7 @@
         <v>0.00734425384032944</v>
       </c>
       <c r="C9">
-        <v>2.26628459025266</v>
+        <v>1.80611638932305</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -516,7 +519,15 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.05</v>
+        <v>55372566150000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1658019167872.27</v>
       </c>
     </row>
   </sheetData>

--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.0896168300034035</v>
+        <v>0.08961683000340349</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.667610883535102</v>
+        <v>0.6676108835351025</v>
       </c>
       <c r="C7">
-        <v>8.19778384931088</v>
+        <v>8.25174260997824</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -500,10 +500,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.00734425384032944</v>
+        <v>0.007344253840329439</v>
       </c>
       <c r="C9">
-        <v>1.80611638932305</v>
+        <v>1.810927128263295</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.08961683000340349</v>
+        <v>0.0896168300034035</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.6676108835351025</v>
+        <v>0.667610883535102</v>
       </c>
       <c r="C7">
-        <v>8.25174260997824</v>
+        <v>8.20670409960899</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -500,10 +500,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.007344253840329439</v>
+        <v>0.00734425384032944</v>
       </c>
       <c r="C9">
-        <v>1.810927128263295</v>
+        <v>1.8109271282633</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -435,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.198506447237223</v>
+        <v>0.1985064472372225</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.0896168300034035</v>
+        <v>0.08961683000340352</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.181984847615171</v>
+        <v>0.1819848476151713</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.922339995959687</v>
+        <v>0.9223399959596873</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -470,10 +470,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.211567950397808</v>
+        <v>0.2115679503978081</v>
       </c>
       <c r="C6">
-        <v>14.8813474357469</v>
+        <v>14.88134743574687</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -481,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.667610883535102</v>
+        <v>0.6676108835351025</v>
       </c>
       <c r="C7">
-        <v>8.20670409960899</v>
+        <v>8.242592620122105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -527,7 +527,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1658019167872.27</v>
+        <v>1658019167872.274</v>
       </c>
     </row>
   </sheetData>

--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -435,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.1985064472372225</v>
+        <v>0.198506447237223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.08961683000340352</v>
+        <v>0.0896168300034035</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1819848476151713</v>
+        <v>0.181984847615171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.9223399959596873</v>
+        <v>0.922339995959687</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -470,10 +470,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.2115679503978081</v>
+        <v>0.211567950397808</v>
       </c>
       <c r="C6">
-        <v>14.88134743574687</v>
+        <v>14.8813474357469</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -481,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.6676108835351025</v>
+        <v>0.667610883535102</v>
       </c>
       <c r="C7">
-        <v>8.242592620122105</v>
+        <v>8.2425926201221</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -527,7 +527,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1658019167872.274</v>
+        <v>1658019167872.27</v>
       </c>
     </row>
   </sheetData>

--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -484,7 +484,7 @@
         <v>0.667610883535102</v>
       </c>
       <c r="C7">
-        <v>8.2425926201221</v>
+        <v>8.20145410355329</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -503,7 +503,7 @@
         <v>0.00734425384032944</v>
       </c>
       <c r="C9">
-        <v>1.8109271282633</v>
+        <v>1.80454631132409</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -519,7 +519,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>55372566150000</v>
+        <v>0.05537256615</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -527,7 +527,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1658019167872.27</v>
+        <v>0.00165801916787227</v>
       </c>
     </row>
   </sheetData>

--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -484,7 +484,7 @@
         <v>0.667610883535102</v>
       </c>
       <c r="C7">
-        <v>8.20145410355329</v>
+        <v>8.26103681538425</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -503,7 +503,7 @@
         <v>0.00734425384032944</v>
       </c>
       <c r="C9">
-        <v>1.80454631132409</v>
+        <v>1.81026824322344</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -484,7 +484,7 @@
         <v>0.667610883535102</v>
       </c>
       <c r="C7">
-        <v>8.26103681538425</v>
+        <v>8.30608554433884</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -503,7 +503,7 @@
         <v>0.00734425384032944</v>
       </c>
       <c r="C9">
-        <v>1.81026824322344</v>
+        <v>1.81092933001676</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -484,7 +484,7 @@
         <v>0.667610883535102</v>
       </c>
       <c r="C7">
-        <v>8.30608554433884</v>
+        <v>8.17840149933006</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.922339995959687</v>
+        <v>0.940355148344516</v>
       </c>
       <c r="C5">
         <v>10</v>

--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -435,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.198506447237223</v>
+        <v>0.1985064472372225</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.0896168300034035</v>
+        <v>0.08961683000340352</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.181984847615171</v>
+        <v>0.1819848476151713</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.940355148344516</v>
+        <v>0.9403551483445159</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -470,10 +470,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.211567950397808</v>
+        <v>0.2115679503978081</v>
       </c>
       <c r="C6">
-        <v>14.8813474357469</v>
+        <v>14.88134743574687</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -481,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.667610883535102</v>
+        <v>0.6676108835351025</v>
       </c>
       <c r="C7">
-        <v>8.17840149933006</v>
+        <v>8.253299237081478</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -500,10 +500,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.00734425384032944</v>
+        <v>0.007344253840329439</v>
       </c>
       <c r="C9">
-        <v>1.81092933001676</v>
+        <v>1.810175008498607</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -511,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0240749649458041</v>
+        <v>0.01961165846816305</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -527,7 +527,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.00165801916787227</v>
+        <v>0.001658019167872274</v>
       </c>
     </row>
   </sheetData>

--- a/animals/animal_biomass_estimate.xlsx
+++ b/animals/animal_biomass_estimate.xlsx
@@ -435,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.1985064472372225</v>
+        <v>0.198506447237222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.08961683000340352</v>
+        <v>0.0896168300034035</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1819848476151713</v>
+        <v>0.181984847615171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.9403551483445159</v>
+        <v>0.940355148344516</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -470,10 +470,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.2115679503978081</v>
+        <v>0.211567950397808</v>
       </c>
       <c r="C6">
-        <v>14.88134743574687</v>
+        <v>14.8813474357469</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -481,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.6676108835351025</v>
+        <v>0.667610883535102</v>
       </c>
       <c r="C7">
-        <v>8.253299237081478</v>
+        <v>8.25329923708148</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -500,10 +500,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.007344253840329439</v>
+        <v>0.00734425384032944</v>
       </c>
       <c r="C9">
-        <v>1.810175008498607</v>
+        <v>1.81017500849861</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -511,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.01961165846816305</v>
+        <v>0.019611658468163</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -527,7 +527,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001658019167872274</v>
+        <v>0.00165801916787227</v>
       </c>
     </row>
   </sheetData>
